--- a/biology/Zoologie/Copadichromis/Copadichromis.xlsx
+++ b/biology/Zoologie/Copadichromis/Copadichromis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copadichromis est un genre de poissons de la famille des Cichlidae. Toutes sont endémiques du lac Malawi.
 </t>
@@ -511,7 +523,9 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est important de se renseigner correctement avant l'acquisition d'un certain nombre des espèces suivantes en aquarium. En effet même si certaines sont dites « faciles » à maintenir en aquarium, d'autres en revanche peuvent faire l'objet d'un déclin en milieu naturel. Il faudra donc prendre soin d'offrir un espace suffisant à vos pensionnaires, et en fonction du nombre d'individus minium conseillé à maintenir.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (24 janvier 2017)[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (24 janvier 2017):
 Copadichromis atripinnis Stauffer &amp; Sato, 2002
 Copadichromis azureus Konings, 1990
 Copadichromis borleyi (Iles, 1960)
@@ -569,46 +585,114 @@
 Copadichromis trewavasae Konings, 1999
 Copadichromis trimaculatus (Iles, 1960)
 Copadichromis verduyni Konings, 1990
-Copadichromis virginalis (Iles, 1960)
-Variétés géographiques, espèces non décrites
-Un grand nombre des espèces ci-dessus possèdent des variantes géographiques, influençant sur les caractéristiques méristiques et la coloration ; ainsi qu'un certain nombre sont non encore décrite - Liste non exhaustive:
-Copadichromis sp. "azureus jalo" "Jalo Reef"[1],[2]
-Copadichromis sp. "chizumulu blue"[4]
-Copadichromis sp. "fire crest mloto" "Gome"[1],[2]
-Copadichromis sp. "flavimanus lundu" "Lundu"[1],[2],[4]
-Copadichromis sp. "kawanga no spot"[4]
-Copadichromis sp. "kawanga no spot" "Tanzania"[1]
-Copadichromis sp. "kawanga no spot" "Undu Reef"[1],[2],[5]
-Copadichromis sp. "kawanga"[2],[6],[4]
-Copadichromis sp. "kawanga" "Kirondo"[1],[2]
-Copadichromis sp. "kawanga" "Lundo"[1],[2]
-Copadichromis sp. "kawanga" "Makonde"[1]
-Copadichromis sp. "kawanga" "Nkhata Bay"[1],[2]
-Copadichromis sp. "likoma blue"[4]
-Copadichromis sp. "likomae masinje"[4]
-Copadichromis sp. "makanjila"[4]
-Copadichromis sp. "mbenji blue"[4]
-Copadichromis sp. "maisoni" "Maison Reef"[1],[2],[4]
-Copadichromis sp. "mloto goldcrest"[4]
-Copadichromis sp. "mloto reef" "Chilumba"[1],[4]
-Copadichromis sp. "mloto liuli"[4]
-Copadichromis sp. "mloto undu"[4]
-Copadichromis sp. "mloto" "Chitimba"[1],[2]
-Copadichromis sp. "midnight mloto"'[4] - voir Copadichromis melas[2]
-Copadichromis sp. "taiwan yellow"[4]
-Copadichromis sp. "three spot eastern"[4]
-Copadichromis sp. "tumbi two spot"[4]
-Copadichromis sp. "virginalis chitande" "Chilumba"[1],[2],[4]
-Copadichromis sp. "virginalis gold"[2],[4]
-Copadichromis sp. "virginalis gold" "Kirondo"[1]
-Copadichromis sp. "virginalis gold" "Liuli"[1]
-Copadichromis sp. "virginalis gold" "Nkanda"[1]
-Copadichromis sp. "virginalis kajose" "Nkanda"[1],[2]
-Copadichromis sp. "verduyni blueface" - voir Copadichromis cyanocephalus[2],[4]
-Copadichromis sp. "verduyni dwarf"[4]
-Copadichromis sp. "yellow jumbo"[4]
-Note
-Selon ITIS:
+Copadichromis virginalis (Iles, 1960)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Copadichromis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copadichromis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés géographiques, espèces non décrites</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un grand nombre des espèces ci-dessus possèdent des variantes géographiques, influençant sur les caractéristiques méristiques et la coloration ; ainsi qu'un certain nombre sont non encore décrite - Liste non exhaustive:
+Copadichromis sp. "azureus jalo" "Jalo Reef",
+Copadichromis sp. "chizumulu blue"
+Copadichromis sp. "fire crest mloto" "Gome",
+Copadichromis sp. "flavimanus lundu" "Lundu"
+Copadichromis sp. "kawanga no spot"
+Copadichromis sp. "kawanga no spot" "Tanzania"
+Copadichromis sp. "kawanga no spot" "Undu Reef"
+Copadichromis sp. "kawanga"
+Copadichromis sp. "kawanga" "Kirondo",
+Copadichromis sp. "kawanga" "Lundo",
+Copadichromis sp. "kawanga" "Makonde"
+Copadichromis sp. "kawanga" "Nkhata Bay",
+Copadichromis sp. "likoma blue"
+Copadichromis sp. "likomae masinje"
+Copadichromis sp. "makanjila"
+Copadichromis sp. "mbenji blue"
+Copadichromis sp. "maisoni" "Maison Reef"
+Copadichromis sp. "mloto goldcrest"
+Copadichromis sp. "mloto reef" "Chilumba",
+Copadichromis sp. "mloto liuli"
+Copadichromis sp. "mloto undu"
+Copadichromis sp. "mloto" "Chitimba",
+Copadichromis sp. "midnight mloto"' - voir Copadichromis melas
+Copadichromis sp. "taiwan yellow"
+Copadichromis sp. "three spot eastern"
+Copadichromis sp. "tumbi two spot"
+Copadichromis sp. "virginalis chitande" "Chilumba"
+Copadichromis sp. "virginalis gold",
+Copadichromis sp. "virginalis gold" "Kirondo"
+Copadichromis sp. "virginalis gold" "Liuli"
+Copadichromis sp. "virginalis gold" "Nkanda"
+Copadichromis sp. "virginalis kajose" "Nkanda",
+Copadichromis sp. "verduyni blueface" - voir Copadichromis cyanocephalus,
+Copadichromis sp. "verduyni dwarf"
+Copadichromis sp. "yellow jumbo"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Copadichromis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copadichromis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon ITIS:
 Copadichromis atripinnis Stauffer &amp; Sato, 2002
 Copadichromis azureus Konings, 1990
 Copadichromis boadzulu (Iles, 1960)
@@ -617,8 +701,8 @@
 Copadichromis conophoros Stauffer, LoVullo &amp; McKaye, 1993
 Copadichromis cyaneus (Trewavas, 1935)
 Copadichromis cyclicos Stauffer, LoVullo &amp; McKaye, 1993
-Copadichromis eucinostomus (Regan, 1922) - voir Mchenga eucinostomus[2]
-Copadichromis flavimanus (Iles, 1960) - voir Mchenga flavimanus[2]
+Copadichromis eucinostomus (Regan, 1922) - voir Mchenga eucinostomus
+Copadichromis flavimanus (Iles, 1960) - voir Mchenga flavimanus
 Copadichromis geertsi Konings, 1999
 Copadichromis ilesi Konings, 1999
 Copadichromis inornatus (Boulenger, 1908)
@@ -631,7 +715,7 @@
 Copadichromis pleurostigmoides (Iles, 1960)
 Copadichromis prostoma (Trewavas, 1935)
 Copadichromis quadrimaculatus (Regan, 1922)
-Copadichromis thinos Stauffer, LoVullo &amp; McKaye, 1993 - voir Mchenga thinos[2]
+Copadichromis thinos Stauffer, LoVullo &amp; McKaye, 1993 - voir Mchenga thinos
 Copadichromis trewavasae Konings, 1999
 Copadichromis trimaculatus (Iles, 1960)
 Copadichromis verduyni Konings, 1990
